--- a/05-Performer/Data/Config.xlsx
+++ b/05-Performer/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -57,6 +57,12 @@
     <t xml:space="preserve">Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
+    <t xml:space="preserve">mail_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail de l'expéditeur</t>
+  </si>
+  <si>
     <t xml:space="preserve">MaxRetryNumber</t>
   </si>
   <si>
@@ -157,6 +163,33 @@
   </si>
   <si>
     <t xml:space="preserve">Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url_seLoger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url de SeLoger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url_helloPret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url de helloPret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom de l'expéditeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email_destinataire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">email du destinataire</t>
   </si>
 </sst>
 </file>
@@ -287,16 +320,17 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="81.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="81.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -365,7 +399,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1360,8 +1404,8 @@
     <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1380,7 +1424,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51"/>
@@ -1424,139 +1468,139 @@
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="0" t="b">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2532,8 +2576,8 @@
     <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2548,16 +2592,16 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="65.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="65.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2565,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2596,10 +2640,62 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3597,8 +3693,8 @@
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
